--- a/DATA_goal/Junction_Flooding_473.xlsx
+++ b/DATA_goal/Junction_Flooding_473.xlsx
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="6" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="6" customWidth="1" min="5" max="5"/>
+    <col width="7" customWidth="1" min="5" max="5"/>
     <col width="6" customWidth="1" min="6" max="6"/>
     <col width="6" customWidth="1" min="7" max="7"/>
-    <col width="6" customWidth="1" min="8" max="8"/>
-    <col width="6" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="8" max="8"/>
+    <col width="7" customWidth="1" min="9" max="9"/>
     <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
     <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
     <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="6" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="16" max="16"/>
     <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="7" customWidth="1" min="20" max="20"/>
-    <col width="6" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="20" max="20"/>
+    <col width="7" customWidth="1" min="21" max="21"/>
     <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="6" customWidth="1" min="23" max="23"/>
+    <col width="7" customWidth="1" min="23" max="23"/>
     <col width="6" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="6" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="26" max="26"/>
     <col width="6" customWidth="1" min="27" max="27"/>
     <col width="6" customWidth="1" min="28" max="28"/>
     <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="6" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="6" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="6" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>44804.54861111111</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0.46</v>
+        <v>4.64</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.39</v>
+        <v>3.95</v>
       </c>
       <c r="D2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>0.57</v>
+        <v>5.68</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>5.56</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0.14</v>
+        <v>1.4</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>0.71</v>
+        <v>7.06</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>0.33</v>
+        <v>3.27</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.3</v>
+        <v>2.97</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0.26</v>
+        <v>2.59</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0.37</v>
+        <v>3.72</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0.5</v>
+        <v>4.97</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.22</v>
+        <v>2.21</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.22</v>
+        <v>2.2</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>0.36</v>
+        <v>3.58</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.17</v>
+        <v>1.71</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.06</v>
+        <v>0.61</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>3.73</v>
+        <v>37.26</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>0.66</v>
+        <v>6.6</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>0.43</v>
+        <v>4.25</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>0.52</v>
+        <v>5.16</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>0.17</v>
+        <v>1.72</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.04</v>
+        <v>0.38</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>0.3</v>
+        <v>3.04</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.18</v>
+        <v>1.79</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.17</v>
+        <v>1.74</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.59</v>
+        <v>5.9</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0.37</v>
+        <v>3.66</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.4</v>
+        <v>3.98</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>0.52</v>
+        <v>5.2</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.1</v>
+        <v>0.99</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0.28</v>
+        <v>2.83</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44804.55555555555</v>
       </c>
       <c r="B3" s="4" t="n">
+        <v>13.34</v>
+      </c>
+      <c r="C3" s="4" t="n">
+        <v>10.15</v>
+      </c>
+      <c r="D3" s="4" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="E3" s="4" t="n">
+        <v>27.22</v>
+      </c>
+      <c r="F3" s="4" t="n">
+        <v>23</v>
+      </c>
+      <c r="G3" s="4" t="n">
+        <v>9.48</v>
+      </c>
+      <c r="H3" s="4" t="n">
+        <v>34.05</v>
+      </c>
+      <c r="I3" s="4" t="n">
+        <v>15.21</v>
+      </c>
+      <c r="J3" s="4" t="n">
+        <v>7.64</v>
+      </c>
+      <c r="K3" s="4" t="n">
+        <v>10.43</v>
+      </c>
+      <c r="L3" s="4" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="M3" s="4" t="n">
+        <v>12.48</v>
+      </c>
+      <c r="N3" s="4" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="O3" s="4" t="n">
+        <v>9.77</v>
+      </c>
+      <c r="P3" s="4" t="n">
+        <v>14.38</v>
+      </c>
+      <c r="Q3" s="4" t="n">
+        <v>7.92</v>
+      </c>
+      <c r="R3" s="4" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="S3" s="4" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="T3" s="4" t="n">
+        <v>146.75</v>
+      </c>
+      <c r="U3" s="4" t="n">
+        <v>27.61</v>
+      </c>
+      <c r="V3" s="4" t="n">
+        <v>9.859999999999999</v>
+      </c>
+      <c r="W3" s="4" t="n">
+        <v>19.02</v>
+      </c>
+      <c r="X3" s="4" t="n">
+        <v>9.550000000000001</v>
+      </c>
+      <c r="Y3" s="4" t="n">
         <v>1.33</v>
       </c>
-      <c r="C3" s="4" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="D3" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="E3" s="4" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="F3" s="4" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="G3" s="4" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="H3" s="4" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="I3" s="4" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="J3" s="4" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="K3" s="4" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="L3" s="4" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="M3" s="4" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="N3" s="4" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="O3" s="4" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="P3" s="4" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="Q3" s="4" t="n">
-        <v>0.79</v>
-      </c>
-      <c r="R3" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="S3" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="T3" s="4" t="n">
-        <v>14.67</v>
-      </c>
-      <c r="U3" s="4" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="V3" s="4" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="W3" s="4" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="X3" s="4" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="Y3" s="4" t="n">
-        <v>0.13</v>
-      </c>
       <c r="Z3" s="4" t="n">
-        <v>1.75</v>
+        <v>17.46</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>8.08</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.73</v>
+        <v>7.29</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.98</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>1.2</v>
+        <v>11.98</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.13</v>
+        <v>1.33</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>3.06</v>
+        <v>30.59</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.51</v>
+        <v>5.08</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>1.14</v>
+        <v>11.39</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44804.5625</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.5</v>
+        <v>5.04</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.39</v>
+        <v>3.86</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>0.98</v>
+        <v>9.84</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>0.84</v>
+        <v>8.449999999999999</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.33</v>
+        <v>3.31</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>1.78</v>
+        <v>17.82</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>0.55</v>
+        <v>5.53</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.31</v>
+        <v>3.07</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0.39</v>
+        <v>3.86</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>0.42</v>
+        <v>4.22</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>0.47</v>
+        <v>4.73</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.16</v>
+        <v>1.63</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0.35</v>
+        <v>3.51</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>0.54</v>
+        <v>5.39</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.28</v>
+        <v>2.76</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.04</v>
+        <v>0.38</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>4.97</v>
+        <v>49.68</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>1.03</v>
+        <v>10.3</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.38</v>
+        <v>3.76</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>0.72</v>
+        <v>7.2</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>0.34</v>
+        <v>3.44</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.05</v>
+        <v>0.49</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>0.86</v>
+        <v>8.6</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.3</v>
+        <v>2.97</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.28</v>
+        <v>2.77</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.39</v>
+        <v>3.93</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>0.44</v>
+        <v>4.45</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.08</v>
+        <v>0.8</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>1.65</v>
+        <v>16.52</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.18</v>
+        <v>1.8</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.41</v>
+        <v>4.12</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44804.56944444445</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>0.21</v>
+        <v>2.1</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.16</v>
+        <v>1.63</v>
       </c>
       <c r="D5" s="4" t="n">
         <v>0</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>0.37</v>
+        <v>3.73</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>0.33</v>
+        <v>3.32</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0.12</v>
+        <v>1.17</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>0.88</v>
+        <v>8.83</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>0.21</v>
+        <v>2.12</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.14</v>
+        <v>1.42</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>0.15</v>
+        <v>1.54</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>0.17</v>
+        <v>1.69</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>0.2</v>
+        <v>1.97</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.08</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>0.13</v>
+        <v>1.32</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>0.22</v>
+        <v>2.2</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>0.1</v>
+        <v>0.97</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.03</v>
+        <v>0.28</v>
       </c>
       <c r="S5" s="4" t="n">
         <v>0</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>1.54</v>
+        <v>15.42</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>0.41</v>
+        <v>4.08</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.16</v>
+        <v>1.59</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>0.3</v>
+        <v>2.96</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>0.13</v>
+        <v>1.31</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.02</v>
+        <v>0.2</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>0.41</v>
+        <v>4.11</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.12</v>
+        <v>1.17</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.11</v>
+        <v>1.14</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.18</v>
+        <v>1.81</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>0.18</v>
+        <v>1.79</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.57</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>0.82</v>
+        <v>8.220000000000001</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.65</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.16</v>
+        <v>1.58</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_473.xlsx
+++ b/DATA_goal/Junction_Flooding_473.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="6" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,522 +652,418 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>44804.54861111111</v>
+        <v>45154.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>4.64</v>
+        <v>10.726</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>3.95</v>
+        <v>7.333</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0</v>
+        <v>3.404</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>5.68</v>
+        <v>23.56</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>5.56</v>
+        <v>17.15</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>1.4</v>
+        <v>8.176</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>7.06</v>
+        <v>24.228</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>3.27</v>
+        <v>13.347</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>2.97</v>
+        <v>5.245</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>2.59</v>
+        <v>7.323</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>3.72</v>
+        <v>9.308999999999999</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>4.97</v>
+        <v>10.191</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>2.21</v>
+        <v>2.44</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>2.2</v>
+        <v>8.647</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>3.58</v>
+        <v>11.655</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>1.71</v>
+        <v>7.955</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.61</v>
+        <v>2.648</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.02</v>
+        <v>1.093</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>37.26</v>
+        <v>124.223</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>6.6</v>
+        <v>23.834</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>4.25</v>
+        <v>7.982</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>5.16</v>
+        <v>14.964</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>1.72</v>
+        <v>8.048999999999999</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.38</v>
+        <v>2.19</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>3.04</v>
+        <v>13.597</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>1.79</v>
+        <v>7.05</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>1.74</v>
+        <v>6.629</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>5.9</v>
+        <v>7.562</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>3.66</v>
+        <v>9.942</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.98</v>
+        <v>2.682</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>5.2</v>
+        <v>21.628</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.99</v>
+        <v>4.075</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>2.83</v>
+        <v>9.978</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>44804.55555555555</v>
+        <v>45154.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>13.34</v>
+        <v>23.804</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>10.15</v>
+        <v>17.612</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.27</v>
+        <v>2.007</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>27.22</v>
+        <v>52.167</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>23</v>
+        <v>41.902</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>9.48</v>
+        <v>18.61</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>34.05</v>
+        <v>69.377</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>15.21</v>
+        <v>29.055</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>7.64</v>
+        <v>12.799</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>10.43</v>
+        <v>18.592</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>11.4</v>
+        <v>20.894</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>12.48</v>
+        <v>22.327</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>3.87</v>
+        <v>5.817</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>9.77</v>
+        <v>18.798</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>14.38</v>
+        <v>26.547</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>7.92</v>
+        <v>16.108</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.55</v>
+        <v>1.4</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.29</v>
+        <v>0.993</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>146.75</v>
+        <v>278.812</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>27.61</v>
+        <v>52.521</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>9.859999999999999</v>
+        <v>17.351</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>19.02</v>
+        <v>34.973</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>9.550000000000001</v>
+        <v>18.397</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>1.33</v>
+        <v>2.874</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>17.46</v>
+        <v>35.068</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>8.08</v>
+        <v>15.326</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>7.29</v>
+        <v>13.719</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>9.800000000000001</v>
+        <v>16.078</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>11.98</v>
+        <v>21.989</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.33</v>
+        <v>1.136</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>30.59</v>
+        <v>63.278</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>5.08</v>
+        <v>9.619</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>11.39</v>
+        <v>21.693</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>44804.5625</v>
+        <v>45154.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>5.04</v>
+        <v>1.278</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>3.86</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.03</v>
+        <v>0.797</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>9.84</v>
+        <v>3.1</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>8.449999999999999</v>
+        <v>1.725</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>3.31</v>
+        <v>0.9360000000000001</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>17.82</v>
+        <v>13.257</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>5.53</v>
+        <v>1.716</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>3.07</v>
+        <v>0.827</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>3.86</v>
+        <v>0.524</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>4.22</v>
+        <v>1.227</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>4.73</v>
+        <v>1.463</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>1.63</v>
+        <v>0.237</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>3.51</v>
+        <v>1.128</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>5.39</v>
+        <v>1.628</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>2.76</v>
+        <v>1.321</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.38</v>
+        <v>0.8090000000000001</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.05</v>
+        <v>0.204</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>49.68</v>
+        <v>10.019</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>10.3</v>
+        <v>3.801</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>3.76</v>
+        <v>1.041</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>7.2</v>
+        <v>2.393</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>3.44</v>
+        <v>1.097</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.49</v>
+        <v>0.401</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>8.6</v>
+        <v>6.094</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>2.97</v>
+        <v>0.92</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>2.77</v>
+        <v>1.018</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>3.93</v>
+        <v>1.137</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>4.45</v>
+        <v>1.295</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.8</v>
+        <v>0.722</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>16.52</v>
+        <v>12.874</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>1.8</v>
+        <v>0.398</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>4.12</v>
+        <v>1.316</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>44804.56944444445</v>
+        <v>45154.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>2.1</v>
+        <v>11.4</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>1.63</v>
+        <v>8.470000000000001</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0</v>
+        <v>0.93</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>3.73</v>
+        <v>25.06</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>3.32</v>
+        <v>20.09</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>1.17</v>
+        <v>8.92</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>8.83</v>
+        <v>32.39</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>2.12</v>
+        <v>13.93</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>1.42</v>
+        <v>6.16</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>1.54</v>
+        <v>8.869999999999999</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>1.69</v>
+        <v>10.05</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>1.97</v>
+        <v>10.76</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>2.76</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>1.32</v>
+        <v>9.02</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>2.2</v>
+        <v>12.68</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>0.97</v>
+        <v>7.77</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.28</v>
+        <v>0.7</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>15.42</v>
+        <v>129.97</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>4.08</v>
+        <v>25.06</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>1.59</v>
+        <v>8.33</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>2.96</v>
+        <v>16.64</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>1.31</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.2</v>
+        <v>1.37</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>4.11</v>
+        <v>16.01</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>1.17</v>
+        <v>7.36</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>1.14</v>
+        <v>6.6</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>1.81</v>
+        <v>7.74</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>1.79</v>
+        <v>10.57</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>8.220000000000001</v>
+        <v>29.01</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.65</v>
+        <v>4.6</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>1.58</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44804.57637731481</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>3.96</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>0.89</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>3.82</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>0.31</v>
+        <v>10.41</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_473.xlsx
+++ b/DATA_goal/Junction_Flooding_473.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,31 +451,31 @@
     <col width="7" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
     <col width="8" customWidth="1" min="9" max="9"/>
-    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
     <col width="8" customWidth="1" min="11" max="11"/>
     <col width="8" customWidth="1" min="12" max="12"/>
     <col width="8" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
-    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
     <col width="8" customWidth="1" min="16" max="16"/>
-    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
     <col width="9" customWidth="1" min="20" max="20"/>
     <col width="8" customWidth="1" min="21" max="21"/>
-    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
     <col width="8" customWidth="1" min="23" max="23"/>
-    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
     <col width="8" customWidth="1" min="26" max="26"/>
-    <col width="8" customWidth="1" min="27" max="27"/>
-    <col width="8" customWidth="1" min="28" max="28"/>
-    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
     <col width="8" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
     <col width="8" customWidth="1" min="32" max="32"/>
     <col width="7" customWidth="1" min="33" max="33"/>
-    <col width="8" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,418 +652,522 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45154.50694444445</v>
+        <v>44804.54861111111</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>10.726</v>
+        <v>4.639</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>7.333</v>
+        <v>3.949</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>3.404</v>
+        <v>0</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>23.56</v>
+        <v>5.682</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>17.15</v>
+        <v>5.56</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>8.176</v>
+        <v>1.404</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>24.228</v>
+        <v>7.057</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>13.347</v>
+        <v>3.269</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>5.245</v>
+        <v>2.974</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>7.323</v>
+        <v>2.59</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>9.308999999999999</v>
+        <v>3.719</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>10.191</v>
+        <v>4.974</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>2.44</v>
+        <v>2.211</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>8.647</v>
+        <v>2.2</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>11.655</v>
+        <v>3.582</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>7.955</v>
+        <v>1.706</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>2.648</v>
+        <v>0.605</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>1.093</v>
+        <v>0.024</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>124.223</v>
+        <v>37.258</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>23.834</v>
+        <v>6.598</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>7.982</v>
+        <v>4.255</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>14.964</v>
+        <v>5.158</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>8.048999999999999</v>
+        <v>1.722</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>2.19</v>
+        <v>0.377</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>13.597</v>
+        <v>3.036</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>7.05</v>
+        <v>1.789</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>6.629</v>
+        <v>1.745</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>7.562</v>
+        <v>5.904</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>9.942</v>
+        <v>3.659</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>2.682</v>
+        <v>3.978</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>21.628</v>
+        <v>5.202</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>4.075</v>
+        <v>0.995</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>9.978</v>
+        <v>2.83</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45154.51388888889</v>
+        <v>44804.55555555555</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>23.804</v>
+        <v>13.336</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>17.612</v>
+        <v>10.154</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>2.007</v>
+        <v>0.273</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>52.167</v>
+        <v>27.215</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>41.902</v>
+        <v>22.999</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>18.61</v>
+        <v>9.476000000000001</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>69.377</v>
+        <v>34.049</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>29.055</v>
+        <v>15.211</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>12.799</v>
+        <v>7.641</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>18.592</v>
+        <v>10.427</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>20.894</v>
+        <v>11.395</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>22.327</v>
+        <v>12.478</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>5.817</v>
+        <v>3.868</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>18.798</v>
+        <v>9.768000000000001</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>26.547</v>
+        <v>14.375</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>16.108</v>
+        <v>7.92</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.4</v>
+        <v>0.554</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.993</v>
+        <v>0.286</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>278.812</v>
+        <v>146.748</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>52.521</v>
+        <v>27.605</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>17.351</v>
+        <v>9.861000000000001</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>34.973</v>
+        <v>19.024</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>18.397</v>
+        <v>9.547000000000001</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>2.874</v>
+        <v>1.328</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>35.068</v>
+        <v>17.462</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>15.326</v>
+        <v>8.081</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>13.719</v>
+        <v>7.29</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>16.078</v>
+        <v>9.797000000000001</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>21.989</v>
+        <v>11.983</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.136</v>
+        <v>1.327</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>63.278</v>
+        <v>30.593</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>9.619</v>
+        <v>5.084</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>21.693</v>
+        <v>11.39</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45154.52083333334</v>
+        <v>44804.5625</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>1.278</v>
+        <v>5.04</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>3.862</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.797</v>
+        <v>0.027</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>3.1</v>
+        <v>9.845000000000001</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>1.725</v>
+        <v>8.449</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.9360000000000001</v>
+        <v>3.31</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>13.257</v>
+        <v>17.817</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>1.716</v>
+        <v>5.525</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.827</v>
+        <v>3.072</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0.524</v>
+        <v>3.856</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>1.227</v>
+        <v>4.224</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>1.463</v>
+        <v>4.73</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.237</v>
+        <v>1.626</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>1.128</v>
+        <v>3.512</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>1.628</v>
+        <v>5.392</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>1.321</v>
+        <v>2.759</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.8090000000000001</v>
+        <v>0.377</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.204</v>
+        <v>0.054</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>10.019</v>
+        <v>49.68</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>3.801</v>
+        <v>10.297</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>1.041</v>
+        <v>3.758</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>2.393</v>
+        <v>7.205</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>1.097</v>
+        <v>3.439</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.401</v>
+        <v>0.492</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>6.094</v>
+        <v>8.601000000000001</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.92</v>
+        <v>2.97</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>1.018</v>
+        <v>2.767</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>1.137</v>
+        <v>3.934</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>1.295</v>
+        <v>4.448</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.722</v>
+        <v>0.796</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>12.874</v>
+        <v>16.521</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.398</v>
+        <v>1.802</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>1.316</v>
+        <v>4.123</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45154.52777777778</v>
+        <v>44804.56944444445</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>11.4</v>
+        <v>2.095</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>8.470000000000001</v>
+        <v>1.627</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.93</v>
+        <v>0</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>25.06</v>
+        <v>3.734</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>20.09</v>
+        <v>3.317</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>8.92</v>
+        <v>1.166</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>32.39</v>
+        <v>8.83</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>13.93</v>
+        <v>2.122</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>6.16</v>
+        <v>1.416</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>8.869999999999999</v>
+        <v>1.535</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>10.05</v>
+        <v>1.694</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>10.76</v>
+        <v>1.973</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>2.76</v>
+        <v>0.806</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>9.02</v>
+        <v>1.322</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>12.68</v>
+        <v>2.196</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>7.77</v>
+        <v>0.966</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.7</v>
+        <v>0.277</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.45</v>
+        <v>0.002</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>129.97</v>
+        <v>15.417</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>25.06</v>
+        <v>4.08</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>8.33</v>
+        <v>1.59</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>16.64</v>
+        <v>2.957</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>8.800000000000001</v>
+        <v>1.306</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.37</v>
+        <v>0.197</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>16.01</v>
+        <v>4.112</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>7.36</v>
+        <v>1.169</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>6.6</v>
+        <v>1.142</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>7.74</v>
+        <v>1.806</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>10.57</v>
+        <v>1.787</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.53</v>
+        <v>0.5679999999999999</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>29.01</v>
+        <v>8.215999999999999</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>4.6</v>
+        <v>0.654</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>10.41</v>
+        <v>1.575</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44804.57637731481</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>0.31</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_473.xlsx
+++ b/DATA_goal/Junction_Flooding_473.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,31 +451,31 @@
     <col width="7" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
     <col width="8" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
     <col width="8" customWidth="1" min="11" max="11"/>
     <col width="8" customWidth="1" min="12" max="12"/>
     <col width="8" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
     <col width="8" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
     <col width="9" customWidth="1" min="20" max="20"/>
     <col width="8" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
     <col width="8" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
     <col width="8" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
     <col width="8" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
     <col width="8" customWidth="1" min="32" max="32"/>
     <col width="7" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,522 +652,418 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>44804.54861111111</v>
+        <v>45154.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>4.639</v>
+        <v>10.726</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>3.949</v>
+        <v>7.333</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0</v>
+        <v>3.404</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>5.682</v>
+        <v>23.56</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>5.56</v>
+        <v>17.15</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>1.404</v>
+        <v>8.176</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>7.057</v>
+        <v>24.228</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>3.269</v>
+        <v>13.347</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>2.974</v>
+        <v>5.245</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>2.59</v>
+        <v>7.323</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>3.719</v>
+        <v>9.308999999999999</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>4.974</v>
+        <v>10.191</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>2.211</v>
+        <v>2.44</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>2.2</v>
+        <v>8.647</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>3.582</v>
+        <v>11.655</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>1.706</v>
+        <v>7.955</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.605</v>
+        <v>2.648</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.024</v>
+        <v>1.093</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>37.258</v>
+        <v>124.223</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>6.598</v>
+        <v>23.834</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>4.255</v>
+        <v>7.982</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>5.158</v>
+        <v>14.964</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>1.722</v>
+        <v>8.048999999999999</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.377</v>
+        <v>2.19</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>3.036</v>
+        <v>13.597</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>1.789</v>
+        <v>7.05</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>1.745</v>
+        <v>6.629</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>5.904</v>
+        <v>7.562</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>3.659</v>
+        <v>9.942</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.978</v>
+        <v>2.682</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>5.202</v>
+        <v>21.628</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.995</v>
+        <v>4.075</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>2.83</v>
+        <v>9.978</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>44804.55555555555</v>
+        <v>45154.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>13.336</v>
+        <v>23.804</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>10.154</v>
+        <v>17.612</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.273</v>
+        <v>2.007</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>27.215</v>
+        <v>52.167</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>22.999</v>
+        <v>41.902</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>9.476000000000001</v>
+        <v>18.61</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>34.049</v>
+        <v>69.377</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>15.211</v>
+        <v>29.055</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>7.641</v>
+        <v>12.799</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>10.427</v>
+        <v>18.592</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>11.395</v>
+        <v>20.894</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>12.478</v>
+        <v>22.327</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>3.868</v>
+        <v>5.817</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>9.768000000000001</v>
+        <v>18.798</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>14.375</v>
+        <v>26.547</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>7.92</v>
+        <v>16.108</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.554</v>
+        <v>1.4</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.286</v>
+        <v>0.993</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>146.748</v>
+        <v>278.812</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>27.605</v>
+        <v>52.521</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>9.861000000000001</v>
+        <v>17.351</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>19.024</v>
+        <v>34.973</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>9.547000000000001</v>
+        <v>18.397</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>1.328</v>
+        <v>2.874</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>17.462</v>
+        <v>35.068</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>8.081</v>
+        <v>15.326</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>7.29</v>
+        <v>13.719</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>9.797000000000001</v>
+        <v>16.078</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>11.983</v>
+        <v>21.989</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.327</v>
+        <v>1.136</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>30.593</v>
+        <v>63.278</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>5.084</v>
+        <v>9.619</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>11.39</v>
+        <v>21.693</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>44804.5625</v>
+        <v>45154.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>5.04</v>
+        <v>1.278</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>3.862</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.027</v>
+        <v>0.797</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>9.845000000000001</v>
+        <v>3.1</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>8.449</v>
+        <v>1.725</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>3.31</v>
+        <v>0.9360000000000001</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>17.817</v>
+        <v>13.257</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>5.525</v>
+        <v>1.716</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>3.072</v>
+        <v>0.827</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>3.856</v>
+        <v>0.524</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>4.224</v>
+        <v>1.227</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>4.73</v>
+        <v>1.463</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>1.626</v>
+        <v>0.237</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>3.512</v>
+        <v>1.128</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>5.392</v>
+        <v>1.628</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>2.759</v>
+        <v>1.321</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.377</v>
+        <v>0.8090000000000001</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.054</v>
+        <v>0.204</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>49.68</v>
+        <v>10.019</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>10.297</v>
+        <v>3.801</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>3.758</v>
+        <v>1.041</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>7.205</v>
+        <v>2.393</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>3.439</v>
+        <v>1.097</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.492</v>
+        <v>0.401</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>8.601000000000001</v>
+        <v>6.094</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>2.97</v>
+        <v>0.92</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>2.767</v>
+        <v>1.018</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>3.934</v>
+        <v>1.137</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>4.448</v>
+        <v>1.295</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.796</v>
+        <v>0.722</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>16.521</v>
+        <v>12.874</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>1.802</v>
+        <v>0.398</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>4.123</v>
+        <v>1.316</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>44804.56944444445</v>
+        <v>45154.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>2.095</v>
+        <v>11.4</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>1.627</v>
+        <v>8.470000000000001</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0</v>
+        <v>0.93</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>3.734</v>
+        <v>25.06</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>3.317</v>
+        <v>20.09</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>1.166</v>
+        <v>8.92</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>8.83</v>
+        <v>32.39</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>2.122</v>
+        <v>13.93</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>1.416</v>
+        <v>6.16</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>1.535</v>
+        <v>8.869999999999999</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>1.694</v>
+        <v>10.05</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>1.973</v>
+        <v>10.76</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.806</v>
+        <v>2.76</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>1.322</v>
+        <v>9.02</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>2.196</v>
+        <v>12.68</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>0.966</v>
+        <v>7.77</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.277</v>
+        <v>0.7</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.002</v>
+        <v>0.45</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>15.417</v>
+        <v>129.97</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>4.08</v>
+        <v>25.06</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>1.59</v>
+        <v>8.33</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>2.957</v>
+        <v>16.64</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>1.306</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.197</v>
+        <v>1.37</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>4.112</v>
+        <v>16.01</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>1.169</v>
+        <v>7.36</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>1.142</v>
+        <v>6.6</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>1.806</v>
+        <v>7.74</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>1.787</v>
+        <v>10.57</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.5679999999999999</v>
+        <v>0.53</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>8.215999999999999</v>
+        <v>29.01</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.654</v>
+        <v>4.6</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>1.575</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44804.57637731481</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>3.96</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>0.89</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>3.82</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>0.31</v>
+        <v>10.41</v>
       </c>
     </row>
   </sheetData>
